--- a/com.sevenmart/src/main/resources/ExcelFiles/adminProfileData.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/adminProfileData.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\com.sevenmart\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB65E99-CB0A-45A2-A1D9-E8100A7DF92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983A4F3C-603F-4632-A5AF-F83652722A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3243" yWindow="2266" windowWidth="18031" windowHeight="9304" xr2:uid="{3EFCBF0D-6915-4D52-B160-E2347A3057A2}"/>
   </bookViews>
   <sheets>
     <sheet name="adminProfileDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -398,7 +397,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -439,18 +438,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749676D4-4A1C-477D-99DA-931B962A3E0D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/com.sevenmart/src/main/resources/ExcelFiles/adminProfileData.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/adminProfileData.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983A4F3C-603F-4632-A5AF-F83652722A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D8AEFE-6372-44D7-B077-C79055F1B9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3243" yWindow="2266" windowWidth="18031" windowHeight="9304" xr2:uid="{3EFCBF0D-6915-4D52-B160-E2347A3057A2}"/>
+    <workbookView xWindow="4871" yWindow="2216" windowWidth="18031" windowHeight="9304" activeTab="2" xr2:uid="{3EFCBF0D-6915-4D52-B160-E2347A3057A2}"/>
   </bookViews>
   <sheets>
     <sheet name="adminProfileDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="verifyDetails" sheetId="2" r:id="rId2"/>
+    <sheet name="deleteDetails" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Shashi</t>
   </si>
@@ -42,20 +38,29 @@
     <t>Soman</t>
   </si>
   <si>
-    <t>Delivery Boy</t>
+    <t>Sreeram</t>
+  </si>
+  <si>
+    <t>Subhash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,45 +400,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88570174-FDC4-4D0B-88DC-DD95C60385BA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>123456</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1234567</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>12345</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350A8694-EF94-44D7-A14E-95A42E924B31}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DCC1C7-8103-4E56-A134-FB3AA1C0B425}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
